--- a/results_method1_and_2/method_entropies/KLd_JSd_voice_id.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_voice_id.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/voice_id/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E68832-0D58-44CD-8734-8DE2F9A118F1}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B4065C-60CB-42D5-8E68-E038D0520414}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-8730" yWindow="2430" windowWidth="15375" windowHeight="7875" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>KLd: karykis -- pro-karykis</t>
   </si>
@@ -95,6 +95,9 @@
   <si>
     <t>echos_pld</t>
   </si>
+  <si>
+    <t>scale</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,34 +149,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,7 +190,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -295,6 +294,50 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7259565489225585E-2"/>
+                  <c:y val="-6.2465368912219391E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2133395543297328E-2"/>
+                  <c:y val="1.1608705161854768E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -421,6 +464,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5934384446696562E-2"/>
+                  <c:y val="2.0867964421114028E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6708236937267679E-2"/>
+                  <c:y val="6.7164260717410329E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1834406883196037E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -547,6 +656,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12921965594030804"/>
+                  <c:y val="-5.7835739282589761E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8015612408711631E-2"/>
+                  <c:y val="-0.12728018372703412"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8314601068813026E-2"/>
+                  <c:y val="-4.394685039370079E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-BDAF-4097-BB8C-331C18F36AE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -847,7 +1022,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -951,6 +1126,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1235022023782843"/>
+                  <c:y val="2.0867964421114028E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1787780162305823E-2"/>
+                  <c:y val="-5.7835739282589678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4564668145487064E-2"/>
+                  <c:y val="2.3494459025954241E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1077,6 +1318,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11872595504721259"/>
+                  <c:y val="1.1608705161854768E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8741971349950207E-2"/>
+                  <c:y val="6.2534631087780609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3749979501319022E-2"/>
+                  <c:y val="3.4756853310002916E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1203,6 +1510,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10206462714812511"/>
+                  <c:y val="-4.8576480023330461E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8741971349950207E-2"/>
+                  <c:y val="-8.5613517060367447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.09665975360049E-3"/>
+                  <c:y val="-4.3946850393700873E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5260-4A58-9A65-1B007836ED5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1503,7 +1876,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1611,8 +1984,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11286343408687703"/>
-                  <c:y val="6.9790755322251385E-3"/>
+                  <c:x val="-8.4873591892828948E-2"/>
+                  <c:y val="-2.2801837270341207E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1633,8 +2006,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2832871345161758E-2"/>
-                  <c:y val="-5.3206109652960049E-2"/>
+                  <c:x val="-2.1027996906215658E-3"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1655,8 +2028,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0909398566412037E-3"/>
-                  <c:y val="-5.7835739282589678E-2"/>
+                  <c:x val="9.037280013578515E-3"/>
+                  <c:y val="-8.0983887430737825E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1754,13 +2127,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.152</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,8 +2176,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.0548341290926977E-2"/>
-                  <c:y val="5.7905001458151063E-2"/>
+                  <c:x val="-7.7298337693972805E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1825,8 +2198,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.578512403902681E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-4.8668332854178431E-2"/>
+                  <c:y val="4.8645742198891721E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1847,8 +2220,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3630625192979638E-2"/>
-                  <c:y val="6.2534631087780693E-2"/>
+                  <c:x val="-5.223315835952249E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1946,13 +2319,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.22</c:v>
+                  <c:v>0.223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.122</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,8 +2368,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11009412173112114"/>
-                  <c:y val="-2.0798702245552681E-2"/>
+                  <c:x val="-0.10514853695447328"/>
+                  <c:y val="-4.394685039370079E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2017,8 +2390,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0063558989405861E-2"/>
-                  <c:y val="-0.11802092446777486"/>
+                  <c:x val="-9.6013671597029102E-2"/>
+                  <c:y val="-8.0983887430737825E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2039,8 +2412,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7617170259939288E-3"/>
-                  <c:y val="1.1608705161854768E-2"/>
+                  <c:x val="1.4607319865678708E-2"/>
+                  <c:y val="-3.4687591134441531E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2138,13 +2511,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>0.28799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20899999999999999</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,7 +2730,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2465,8 +2838,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10423741893968874"/>
-                  <c:y val="-2.5428331875182269E-2"/>
+                  <c:x val="-9.6914511103070103E-2"/>
+                  <c:y val="-2.2801837270341207E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2487,8 +2860,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8285184468594259E-2"/>
-                  <c:y val="-6.2465368912219307E-2"/>
+                  <c:x val="3.4715757190384015E-3"/>
+                  <c:y val="-4.8576480023330419E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2509,8 +2882,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0845788124705159E-3"/>
-                  <c:y val="-5.7835739282589678E-2"/>
+                  <c:x val="-4.8939315161373046E-3"/>
+                  <c:y val="-1.1539442986293464E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2657,8 +3030,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.106225257990813"/>
-                  <c:y val="-3.0057961504811898E-2"/>
+                  <c:x val="-5.7875477338916806E-2"/>
+                  <c:y val="4.8645742198891721E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2679,8 +3052,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2150318371641551E-2"/>
-                  <c:y val="6.2534631087780609E-2"/>
+                  <c:x val="-5.2298472515466307E-2"/>
+                  <c:y val="6.2534631087780693E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2701,8 +3074,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5485731428683229E-2"/>
-                  <c:y val="4.4016112569262175E-2"/>
+                  <c:x val="-5.2298472515466411E-2"/>
+                  <c:y val="6.2534631087780693E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2800,13 +3173,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2849,8 +3222,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.6628543229629753E-2"/>
-                  <c:y val="-9.0243146689997125E-2"/>
+                  <c:x val="-8.7768223192611322E-2"/>
+                  <c:y val="-2.5428331875182311E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2871,8 +3244,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5524296897588464E-2"/>
-                  <c:y val="-0.1226505540974045"/>
+                  <c:x val="-7.7394994220993427E-2"/>
+                  <c:y val="-6.709499854184893E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2893,8 +3266,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.4371963295411782E-3"/>
-                  <c:y val="-2.2801837270341207E-3"/>
+                  <c:x val="-2.1054291044121719E-3"/>
+                  <c:y val="-6.2465368912219307E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2992,13 +3365,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.28199999999999997</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.154</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3211,7 +3584,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3319,8 +3692,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11298106149986567"/>
-                  <c:y val="1.9849445902595509E-2"/>
+                  <c:x val="-0.10247092911579861"/>
+                  <c:y val="3.4756853310002916E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3341,8 +3714,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.7908016180050755E-4"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-6.9015621477341596E-2"/>
+                  <c:y val="6.2534631087780693E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3363,8 +3736,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5359535946609691E-2"/>
-                  <c:y val="9.4942038495188022E-2"/>
+                  <c:x val="-2.1050062004276892E-3"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3511,8 +3884,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11852546397808261"/>
-                  <c:y val="-6.3483887430737823E-2"/>
+                  <c:x val="-0.10525887141900336"/>
+                  <c:y val="-6.2465368912219307E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3533,8 +3906,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.9956838791259135E-3"/>
-                  <c:y val="-5.7835739282589761E-2"/>
+                  <c:x val="1.7410589922005667E-2"/>
+                  <c:y val="-5.3206109652960049E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3548,6 +3921,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-AF01-44C0-9EDB-00F96CD1B74D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2986474528415068E-2"/>
+                  <c:y val="-8.0983887430737825E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-748B-4EF2-9F4E-50F6255B0887}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3635,7 +4030,7 @@
                   <c:v>0.308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16300000000000001</c:v>
@@ -3681,8 +4076,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12406997559808058"/>
-                  <c:y val="-2.0798702245552639E-2"/>
+                  <c:x val="-0.12198652523823189"/>
+                  <c:y val="-2.2801837270342057E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3703,8 +4098,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14347538427183987"/>
-                  <c:y val="1.1608705161854683E-2"/>
+                  <c:x val="-6.6227679174136855E-2"/>
+                  <c:y val="-8.5613517060367447E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3725,8 +4120,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8653223164163281E-3"/>
-                  <c:y val="1.6238334791484399E-2"/>
+                  <c:x val="2.2986474528415068E-2"/>
+                  <c:y val="-1.6169072615923093E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3830,7 +4225,7 @@
                   <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.151</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,7 +4438,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4151,8 +4546,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11051076830405941"/>
-                  <c:y val="-2.2801837270341207E-3"/>
+                  <c:x val="-0.11376492536985379"/>
+                  <c:y val="6.9790755322250535E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4173,8 +4568,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.877760914188456E-2"/>
-                  <c:y val="-4.8576480023330419E-2"/>
+                  <c:x val="1.7432383601677145E-2"/>
+                  <c:y val="-3.931722076407116E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4195,8 +4590,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8093977130404676E-4"/>
-                  <c:y val="-1.1539442986293464E-2"/>
+                  <c:x val="9.0580872843452828E-3"/>
+                  <c:y val="-2.2801837270341207E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4343,8 +4738,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1593670477682225E-2"/>
-                  <c:y val="4.4016112569262175E-2"/>
+                  <c:x val="-0.10259919694674477"/>
+                  <c:y val="3.0127223680373287E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4365,8 +4760,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0727715360085949E-2"/>
-                  <c:y val="6.7164260717410246E-2"/>
+                  <c:x val="-5.2353419042754291E-2"/>
+                  <c:y val="6.2534631087780609E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4387,8 +4782,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4678023396661532E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-2.6448929101141379E-2"/>
+                  <c:y val="6.2534631087780776E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4535,8 +4930,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10495118290029125"/>
-                  <c:y val="-3.931722076407116E-2"/>
+                  <c:x val="-0.11097349326407652"/>
+                  <c:y val="-3.4687591134441531E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4557,7 +4952,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0988529305800397E-3"/>
+                  <c:x val="3.475223072790776E-3"/>
                   <c:y val="-9.9502405949256426E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -4579,8 +4974,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0988529305801416E-3"/>
-                  <c:y val="-7.6354257801108188E-2"/>
+                  <c:x val="3.4752230727908783E-3"/>
+                  <c:y val="-6.2465368912219307E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4897,7 +5292,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5005,8 +5400,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10189236568521286"/>
-                  <c:y val="-2.2801837270341207E-3"/>
+                  <c:x val="-0.10247090662107614"/>
+                  <c:y val="-6.9098133566637505E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5027,8 +5422,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9845719361118941E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-6.0651781253265404E-2"/>
+                  <c:y val="6.7164260717410329E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5049,8 +5444,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1498529751067346E-2"/>
-                  <c:y val="7.1793890347039868E-2"/>
+                  <c:x val="1.7410586099981296E-2"/>
+                  <c:y val="6.2534631087780776E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5148,13 +5543,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.154</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5197,8 +5592,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8031359489670488E-2"/>
-                  <c:y val="6.2534631087780609E-2"/>
+                  <c:x val="-9.9682964929888748E-2"/>
+                  <c:y val="4.4016112569262175E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5219,8 +5614,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0409724794633368E-2"/>
-                  <c:y val="5.7905001458151063E-2"/>
+                  <c:x val="-0.13035032353295001"/>
+                  <c:y val="4.4016112569262092E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5241,8 +5636,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.4512814009088747E-3"/>
-                  <c:y val="2.0867964421114028E-2"/>
+                  <c:x val="2.0979151464701147E-2"/>
+                  <c:y val="1.6238334791484312E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5340,13 +5735,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.24399999999999999</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20200000000000001</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.157</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5389,8 +5784,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.9714755772345089E-2"/>
-                  <c:y val="-4.8576480023330502E-2"/>
+                  <c:x val="-9.9682964929888748E-2"/>
+                  <c:y val="-5.320610965296009E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5411,8 +5806,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.5853749576802748E-2"/>
-                  <c:y val="-6.2465368912219307E-2"/>
+                  <c:x val="-2.440853926782954E-2"/>
+                  <c:y val="-7.1724628171478649E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5433,8 +5828,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.7908016180050755E-4"/>
-                  <c:y val="-6.2465368912219307E-2"/>
+                  <c:x val="-3.277236434139158E-2"/>
+                  <c:y val="-7.6354257801108188E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5532,13 +5927,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.28699999999999998</c:v>
+                  <c:v>0.29499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.224</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17399999999999999</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5751,7 +6146,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5859,8 +6254,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10735400063995061"/>
-                  <c:y val="6.9790755322251385E-3"/>
+                  <c:x val="-8.5712548969006555E-2"/>
+                  <c:y val="-5.783573928258972E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5878,11 +6273,33 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8269137083373929E-4"/>
+                  <c:y val="-5.7835739282589678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FC58-4E0B-AD22-CD04AED1ACC5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.4528884913372096E-2"/>
-                  <c:y val="-4.8576480023330419E-2"/>
+                  <c:x val="6.8269137083363715E-4"/>
+                  <c:y val="-6.2465368912219391E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5983,7 +6400,7 @@
                   <c:v>0.25800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13400000000000001</c:v>
@@ -6029,8 +6446,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2423410413134585E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-6.0630059838085185E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6051,8 +6468,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.134314809010521E-2"/>
-                  <c:y val="6.2534631087780609E-2"/>
+                  <c:x val="-4.9482286891009017E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6073,8 +6490,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.256222995950251E-2"/>
-                  <c:y val="4.4016112569262175E-2"/>
+                  <c:x val="-5.5056173364547198E-2"/>
+                  <c:y val="5.3275371828521351E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6178,7 +6595,7 @@
                   <c:v>0.13900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.114</c:v>
+                  <c:v>0.113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6221,8 +6638,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10458393505919325"/>
-                  <c:y val="-6.2465368912219266E-2"/>
+                  <c:x val="-9.6860321916082723E-2"/>
+                  <c:y val="-1.616907261592301E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6243,8 +6660,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5609147236401539E-2"/>
-                  <c:y val="-3.4687591134441531E-2"/>
+                  <c:x val="-6.8210545442097079E-2"/>
+                  <c:y val="-6.2465368912219307E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6265,8 +6682,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9154831179770829E-2"/>
-                  <c:y val="6.9790755322251385E-3"/>
+                  <c:x val="-2.1042518659353028E-3"/>
+                  <c:y val="-1.1539442986293381E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6367,10 +6784,10 @@
                   <c:v>0.253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11336,7 +11753,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11632,10 +12049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="C8:H10"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45:S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11675,6 +12092,7 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
@@ -11710,7 +12128,7 @@
       <c r="H2" s="1">
         <v>9.67</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="1">
@@ -11746,7 +12164,7 @@
       <c r="H3" s="1">
         <v>31.25</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1">
@@ -11782,7 +12200,7 @@
       <c r="H4" s="1">
         <v>49.01</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="1">
@@ -11975,34 +12393,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="D14" s="1">
-        <v>5.86</v>
+        <v>6.08</v>
       </c>
       <c r="E14" s="1">
-        <v>10.210000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="F14" s="1">
-        <v>7.94</v>
+        <v>7.85</v>
       </c>
       <c r="G14" s="1">
-        <v>4.74</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>9.39</v>
+        <v>9.32</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="1">
-        <v>0.26100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="L14" s="1">
-        <v>0.22</v>
+        <v>0.223</v>
       </c>
       <c r="M14" s="1">
-        <v>0.28899999999999998</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12011,34 +12429,34 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>26.71</v>
+        <v>26.85</v>
       </c>
       <c r="D15" s="1">
-        <v>15.48</v>
+        <v>15.93</v>
       </c>
       <c r="E15" s="1">
-        <v>30.47</v>
+        <v>30.82</v>
       </c>
       <c r="F15" s="1">
-        <v>28.05</v>
+        <v>28.1</v>
       </c>
       <c r="G15" s="1">
-        <v>13.74</v>
+        <v>14.12</v>
       </c>
       <c r="H15" s="1">
-        <v>29.79</v>
+        <v>29.97</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="L15" s="1">
-        <v>0.158</v>
+        <v>0.16</v>
       </c>
       <c r="M15" s="1">
-        <v>0.20899999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -12047,34 +12465,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>42.92</v>
+        <v>43.25</v>
       </c>
       <c r="D16" s="1">
-        <v>25.32</v>
+        <v>25.61</v>
       </c>
       <c r="E16" s="1">
-        <v>44.29</v>
+        <v>44.83</v>
       </c>
       <c r="F16" s="1">
-        <v>44.37</v>
+        <v>44.67</v>
       </c>
       <c r="G16" s="1">
-        <v>23.78</v>
+        <v>23.97</v>
       </c>
       <c r="H16" s="1">
-        <v>44.83</v>
+        <v>45.25</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="L16" s="1">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="M16" s="1">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -12119,19 +12537,19 @@
         <v>7.22</v>
       </c>
       <c r="D20" s="1">
-        <v>4.28</v>
+        <v>4.33</v>
       </c>
       <c r="E20" s="1">
-        <v>10.02</v>
+        <v>10.25</v>
       </c>
       <c r="F20" s="1">
-        <v>7.3</v>
+        <v>7.28</v>
       </c>
       <c r="G20" s="1">
-        <v>4.3899999999999997</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>9.99</v>
+        <v>10.18</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>10</v>
@@ -12140,10 +12558,10 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="L20" s="1">
-        <v>0.19</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>0.28199999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -12152,22 +12570,22 @@
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>27.81</v>
+        <v>27.86</v>
       </c>
       <c r="D21" s="1">
-        <v>17.809999999999999</v>
+        <v>18.23</v>
       </c>
       <c r="E21" s="1">
-        <v>32.81</v>
+        <v>33.72</v>
       </c>
       <c r="F21" s="1">
-        <v>27.89</v>
+        <v>27.87</v>
       </c>
       <c r="G21" s="1">
-        <v>17.66</v>
+        <v>18.05</v>
       </c>
       <c r="H21" s="1">
-        <v>32.799999999999997</v>
+        <v>33.64</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>11</v>
@@ -12176,10 +12594,10 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="L21" s="1">
-        <v>0.158</v>
+        <v>0.161</v>
       </c>
       <c r="M21" s="1">
-        <v>0.20799999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -12191,19 +12609,19 @@
         <v>47.15</v>
       </c>
       <c r="D22" s="1">
-        <v>30.37</v>
+        <v>31.23</v>
       </c>
       <c r="E22" s="1">
-        <v>49.31</v>
+        <v>50.68</v>
       </c>
       <c r="F22" s="1">
-        <v>48.25</v>
+        <v>48.22</v>
       </c>
       <c r="G22" s="1">
-        <v>29.92</v>
+        <v>30.75</v>
       </c>
       <c r="H22" s="1">
-        <v>50.13</v>
+        <v>51.44</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>12</v>
@@ -12212,10 +12630,10 @@
         <v>0.156</v>
       </c>
       <c r="L22" s="1">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="M22" s="1">
-        <v>0.154</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -12263,7 +12681,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="E26" s="1">
-        <v>9.84</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="F26" s="1">
         <v>8.58</v>
@@ -12272,7 +12690,7 @@
         <v>8.25</v>
       </c>
       <c r="H26" s="1">
-        <v>10.64</v>
+        <v>10.68</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>10</v>
@@ -12296,19 +12714,19 @@
         <v>25.64</v>
       </c>
       <c r="D27" s="1">
-        <v>22.78</v>
+        <v>22.88</v>
       </c>
       <c r="E27" s="1">
-        <v>28.57</v>
+        <v>28.75</v>
       </c>
       <c r="F27" s="1">
         <v>26.5</v>
       </c>
       <c r="G27" s="1">
-        <v>20.48</v>
+        <v>20.55</v>
       </c>
       <c r="H27" s="1">
-        <v>28.53</v>
+        <v>28.68</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>11</v>
@@ -12317,7 +12735,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="L27" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="M27" s="1">
         <v>0.20200000000000001</v>
@@ -12332,19 +12750,19 @@
         <v>39.35</v>
       </c>
       <c r="D28" s="1">
-        <v>38.82</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1">
-        <v>43.71</v>
+        <v>43.82</v>
       </c>
       <c r="F28" s="1">
         <v>39</v>
       </c>
       <c r="G28" s="1">
-        <v>34.76</v>
+        <v>34.85</v>
       </c>
       <c r="H28" s="1">
-        <v>41.62</v>
+        <v>41.68</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>12</v>
@@ -12356,7 +12774,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="M28" s="1">
-        <v>0.151</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -12398,22 +12816,22 @@
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="D32" s="1">
-        <v>3.91</v>
+        <v>3.89</v>
       </c>
       <c r="E32" s="1">
-        <v>7.77</v>
+        <v>7.84</v>
       </c>
       <c r="F32" s="1">
-        <v>7.06</v>
+        <v>7.09</v>
       </c>
       <c r="G32" s="1">
-        <v>4.1500000000000004</v>
+        <v>4.13</v>
       </c>
       <c r="H32" s="1">
-        <v>9.23</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>10</v>
@@ -12428,28 +12846,28 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1">
-        <v>26.22</v>
+        <v>26.28</v>
       </c>
       <c r="D33" s="1">
-        <v>15.37</v>
+        <v>15.33</v>
       </c>
       <c r="E33" s="1">
-        <v>28.35</v>
+        <v>28.45</v>
       </c>
       <c r="F33" s="1">
-        <v>25.85</v>
+        <v>25.88</v>
       </c>
       <c r="G33" s="1">
-        <v>16.05</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="H33" s="1">
-        <v>29.75</v>
+        <v>29.81</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>11</v>
@@ -12463,29 +12881,30 @@
       <c r="M33" s="1">
         <v>0.189</v>
       </c>
+      <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>41.01</v>
+        <v>41.12</v>
       </c>
       <c r="D34" s="1">
-        <v>27.04</v>
+        <v>27.14</v>
       </c>
       <c r="E34" s="1">
-        <v>43.77</v>
+        <v>43.86</v>
       </c>
       <c r="F34" s="1">
-        <v>41.05</v>
+        <v>41.27</v>
       </c>
       <c r="G34" s="1">
-        <v>27.31</v>
+        <v>27.3</v>
       </c>
       <c r="H34" s="1">
-        <v>44.49</v>
+        <v>44.68</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>12</v>
@@ -12500,7 +12919,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>0</v>
@@ -12531,7 +12950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
@@ -12539,109 +12958,109 @@
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>7.58</v>
+        <v>7.92</v>
       </c>
       <c r="D38" s="1">
-        <v>7.11</v>
+        <v>7.36</v>
       </c>
       <c r="E38" s="1">
-        <v>9.99</v>
+        <v>10.61</v>
       </c>
       <c r="F38" s="1">
-        <v>8.08</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="G38" s="1">
-        <v>6.72</v>
+        <v>7.02</v>
       </c>
       <c r="H38" s="1">
-        <v>9.2200000000000006</v>
+        <v>9.89</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K38" s="1">
-        <v>0.26600000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="L38" s="1">
-        <v>0.24399999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="M38" s="1">
-        <v>0.28699999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>25.06</v>
+        <v>25.72</v>
       </c>
       <c r="D39" s="1">
-        <v>24.71</v>
+        <v>25.61</v>
       </c>
       <c r="E39" s="1">
-        <v>34.979999999999997</v>
+        <v>36.92</v>
       </c>
       <c r="F39" s="1">
-        <v>25.87</v>
+        <v>26.7</v>
       </c>
       <c r="G39" s="1">
-        <v>21.02</v>
+        <v>21.74</v>
       </c>
       <c r="H39" s="1">
-        <v>31.75</v>
+        <v>34.04</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K39" s="1">
-        <v>0.2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="L39" s="1">
-        <v>0.20200000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="M39" s="1">
-        <v>0.224</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1">
-        <v>40.81</v>
+        <v>41.31</v>
       </c>
       <c r="D40" s="1">
-        <v>39.79</v>
+        <v>41.04</v>
       </c>
       <c r="E40" s="1">
-        <v>54.46</v>
+        <v>56.58</v>
       </c>
       <c r="F40" s="1">
-        <v>41.78</v>
+        <v>42.6</v>
       </c>
       <c r="G40" s="1">
-        <v>34.32</v>
+        <v>35.19</v>
       </c>
       <c r="H40" s="1">
-        <v>50.4</v>
+        <v>52.77</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K40" s="1">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="L40" s="1">
-        <v>0.157</v>
+        <v>0.16</v>
       </c>
       <c r="M40" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>0</v>
@@ -12672,7 +13091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>19</v>
       </c>
@@ -12680,22 +13099,22 @@
         <v>10</v>
       </c>
       <c r="C44" s="1">
-        <v>6.98</v>
+        <v>7.03</v>
       </c>
       <c r="D44" s="1">
         <v>4.55</v>
       </c>
       <c r="E44" s="1">
-        <v>8.11</v>
+        <v>8.17</v>
       </c>
       <c r="F44" s="1">
-        <v>8.11</v>
+        <v>8.17</v>
       </c>
       <c r="G44" s="1">
         <v>4.83</v>
       </c>
       <c r="H44" s="1">
-        <v>8.98</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>10</v>
@@ -12710,64 +13129,64 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1">
-        <v>26.75</v>
+        <v>27.1</v>
       </c>
       <c r="D45" s="1">
-        <v>15.57</v>
+        <v>15.56</v>
       </c>
       <c r="E45" s="1">
-        <v>28.44</v>
+        <v>29.03</v>
       </c>
       <c r="F45" s="1">
-        <v>28.13</v>
+        <v>28.4</v>
       </c>
       <c r="G45" s="1">
-        <v>15.14</v>
+        <v>15.12</v>
       </c>
       <c r="H45" s="1">
-        <v>29.08</v>
+        <v>29.23</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K45" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="L45" s="1">
         <v>0.13900000000000001</v>
       </c>
       <c r="M45" s="1">
-        <v>0.17899999999999999</v>
+        <v>0.18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>44.94</v>
+        <v>45.15</v>
       </c>
       <c r="D46" s="1">
-        <v>29.81</v>
+        <v>29.77</v>
       </c>
       <c r="E46" s="1">
-        <v>45.45</v>
+        <v>46.11</v>
       </c>
       <c r="F46" s="1">
-        <v>45.83</v>
+        <v>46.04</v>
       </c>
       <c r="G46" s="1">
-        <v>28.74</v>
+        <v>28.62</v>
       </c>
       <c r="H46" s="1">
-        <v>44.81</v>
+        <v>45.12</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>12</v>
@@ -12776,14 +13195,65 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="L46" s="1">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="M46" s="1">
-        <v>0.13</v>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+    </row>
+    <row r="52" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="O51:Y51"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A38:A40"/>
@@ -12793,6 +13263,30 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A20:A22"/>
   </mergeCells>
+  <conditionalFormatting sqref="K2:M4 K8:M10 K14:M16 K20:M22 K26:M28 K32:M34 K38:M40 K44:M46 O52:S52">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52:T52 K44:M46 K38:M40 K32:M34 K26:M28 K20:M22 K14:M16 K8:M10 K2:M4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results_method1_and_2/method_entropies/KLd_JSd_voice_id.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_voice_id.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B4065C-60CB-42D5-8E68-E038D0520414}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343B49C0-8190-4729-AEFE-F3CF0B76EBA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="evaluation_voice_id" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="23">
   <si>
     <t>KLd: karykis -- pro-karykis</t>
   </si>
@@ -98,6 +99,12 @@
   <si>
     <t>scale</t>
   </si>
+  <si>
+    <t>evaluation_of_karykis</t>
+  </si>
+  <si>
+    <t>scale_of_evaluation</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,11 +156,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +178,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12051,8 +12077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45:S46"/>
+    <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51:Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12104,7 +12130,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -12142,7 +12168,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12178,7 +12204,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12245,7 +12271,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -12283,7 +12309,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -12319,7 +12345,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -12386,7 +12412,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -12424,7 +12450,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -12460,7 +12486,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -12527,7 +12553,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -12565,7 +12591,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -12601,7 +12627,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -12668,7 +12694,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -12706,7 +12732,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -12742,7 +12768,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
@@ -12809,7 +12835,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -12847,7 +12873,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
@@ -12884,7 +12910,7 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
@@ -12951,7 +12977,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -12989,7 +13015,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -13025,7 +13051,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
@@ -13092,7 +13118,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -13130,7 +13156,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -13166,7 +13192,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
@@ -13202,19 +13228,19 @@
       </c>
     </row>
     <row r="51" spans="15:25" x14ac:dyDescent="0.25">
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="15:25" x14ac:dyDescent="0.25">
       <c r="O52" s="1">
@@ -13253,15 +13279,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="O51:Y51"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:M4 K8:M10 K14:M16 K20:M22 K26:M28 K32:M34 K38:M40 K44:M46 O52:S52">
     <cfRule type="colorScale" priority="2">
@@ -13290,4 +13316,815 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C73DDE-E5AC-42B2-8459-D7480EF36134}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F3" s="6">
+        <f>ROUND(B3/C3,3)</f>
+        <v>1.133</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <f>ROUND(B4/C4,3)</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="F5" s="6">
+        <f>ROUND(B5/C5,3)</f>
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <f>ROUND(B9/C9,3)</f>
+        <v>1.494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F10" s="6">
+        <f>ROUND(B10/C10,3)</f>
+        <v>1.3879999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="F11" s="6">
+        <f>ROUND(B11/C11,3)</f>
+        <v>1.2430000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f>ROUND(B15/C15,3)</f>
+        <v>1.1659999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F16" s="6">
+        <f>ROUND(B16/C16,3)</f>
+        <v>1.2629999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.151</v>
+      </c>
+      <c r="F17" s="6">
+        <f>ROUND(B17/C17,3)</f>
+        <v>1.252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f>ROUND(B21/C21,3)</f>
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F22" s="6">
+        <f>ROUND(B22/C22,3)</f>
+        <v>1.2609999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="F23" s="6">
+        <f>ROUND(B23/C23,3)</f>
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <f>ROUND(B27/C27,3)</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <f>ROUND(B28/C28,3)</f>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="F29" s="6">
+        <f>ROUND(B29/C29,3)</f>
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F33" s="6">
+        <f>ROUND(B33/C33,3)</f>
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="F34" s="6">
+        <f>ROUND(B34/C34,3)</f>
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F35" s="6">
+        <f>ROUND(B35/C35,3)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F39" s="6">
+        <f>ROUND(B39/C39,3)</f>
+        <v>1.093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F40" s="6">
+        <f>ROUND(B40/C40,3)</f>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F41" s="6">
+        <f>ROUND(B41/C41,3)</f>
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="F45" s="6">
+        <f>ROUND(B45/C45,3)</f>
+        <v>1.4019999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F46" s="6">
+        <f>ROUND(B46/C46,3)</f>
+        <v>1.3089999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F47" s="6">
+        <f>ROUND(B47/C47,3)</f>
+        <v>1.1859999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="H2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:D5 B9:D11 B15:D17 B21:D23 B27:D29 B33:D35 B39:D41 B45:D47">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:E51">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51 B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3 F3:F5 F9:F11 F15:F17 F21:F23 F28:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results_method1_and_2/method_entropies/KLd_JSd_voice_id.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_voice_id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343B49C0-8190-4729-AEFE-F3CF0B76EBA7}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{581E4E08-0396-4B2C-9EAA-7C40F268F345}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="25">
   <si>
     <t>KLd: karykis -- pro-karykis</t>
   </si>
@@ -105,6 +105,12 @@
   <si>
     <t>scale_of_evaluation</t>
   </si>
+  <si>
+    <t>5-grams</t>
+  </si>
+  <si>
+    <t>case_study</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,11 +171,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,15 +205,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +237,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1048,7 +1069,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1902,7 +1923,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2756,7 +2777,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3610,7 +3631,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4464,7 +4485,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5318,7 +5339,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6172,7 +6193,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6988,6 +7009,335 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>case_study</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (voice_id)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- karykis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$55:$J$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$55:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8066-4D11-ACFF-1DF9F66EECAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="65875552"/>
+        <c:axId val="65883040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65875552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65883040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65883040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65875552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -7343,6 +7693,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -10956,6 +11346,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11775,11 +12681,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>415018</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88447</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Γράφημα 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EC9904-E20B-4BBE-822D-EA7377A314A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12075,31 +13017,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51:Y52"/>
+    <sheetView tabSelected="1" topLeftCell="H49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y61" sqref="Y61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +13062,9 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
@@ -12130,7 +13076,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -12168,7 +13114,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12204,7 +13150,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12239,8 +13185,46 @@
         <v>0.154</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>49.98</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43.25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>53.01</v>
+      </c>
+      <c r="F5" s="1">
+        <v>52.07</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41.01</v>
+      </c>
+      <c r="H5" s="1">
+        <v>53.42</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
@@ -12259,7 +13243,9 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
@@ -12271,7 +13257,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -12309,7 +13295,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -12345,7 +13331,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -12380,8 +13366,46 @@
         <v>0.152</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>48.84</v>
+      </c>
+      <c r="D11" s="1">
+        <v>35.56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>54.94</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50.59</v>
+      </c>
+      <c r="G11" s="1">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>53.86</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.114</v>
+      </c>
+    </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
@@ -12400,7 +13424,9 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
@@ -12412,7 +13438,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -12450,7 +13476,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -12486,7 +13512,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -12521,8 +13547,46 @@
         <v>0.151</v>
       </c>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>49.81</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30.84</v>
+      </c>
+      <c r="E17" s="1">
+        <v>49.87</v>
+      </c>
+      <c r="F17" s="1">
+        <v>51.05</v>
+      </c>
+      <c r="G17" s="1">
+        <v>29.76</v>
+      </c>
+      <c r="H17" s="1">
+        <v>51.08</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>0</v>
       </c>
@@ -12541,7 +13605,9 @@
       <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
@@ -12553,7 +13619,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -12591,7 +13657,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -12627,7 +13693,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -12662,8 +13728,46 @@
         <v>0.157</v>
       </c>
     </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>52.45</v>
+      </c>
+      <c r="D23" s="1">
+        <v>36.85</v>
+      </c>
+      <c r="E23" s="1">
+        <v>54.91</v>
+      </c>
+      <c r="F23" s="1">
+        <v>54.87</v>
+      </c>
+      <c r="G23" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H23" s="1">
+        <v>57.09</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="L23" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.122</v>
+      </c>
+    </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
@@ -12682,7 +13786,9 @@
       <c r="H25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
       </c>
@@ -12694,7 +13800,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -12732,7 +13838,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -12768,7 +13874,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
@@ -12803,8 +13909,28 @@
         <v>0.152</v>
       </c>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>0</v>
       </c>
@@ -12823,7 +13949,9 @@
       <c r="H31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K31" s="2" t="s">
         <v>6</v>
       </c>
@@ -12835,7 +13963,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -12873,7 +14001,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
@@ -12910,7 +14038,7 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
@@ -12945,8 +14073,46 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44.55</v>
+      </c>
+      <c r="D35" s="1">
+        <v>33.24</v>
+      </c>
+      <c r="E35" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G35" s="1">
+        <v>33.06</v>
+      </c>
+      <c r="H35" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L35" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.106</v>
+      </c>
+    </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
@@ -12965,7 +14131,9 @@
       <c r="H37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K37" s="2" t="s">
         <v>6</v>
       </c>
@@ -12977,7 +14145,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -13015,7 +14183,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -13051,7 +14219,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
@@ -13086,8 +14254,46 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>48.22</v>
+      </c>
+      <c r="E41" s="1">
+        <v>62.68</v>
+      </c>
+      <c r="F41" s="1">
+        <v>50.28</v>
+      </c>
+      <c r="G41" s="1">
+        <v>43.17</v>
+      </c>
+      <c r="H41" s="1">
+        <v>59.44</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
@@ -13106,7 +14312,9 @@
       <c r="H43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K43" s="2" t="s">
         <v>6</v>
       </c>
@@ -13118,7 +14326,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -13156,7 +14364,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -13192,7 +14400,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
@@ -13227,7 +14435,43 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="15:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>53.42</v>
+      </c>
+      <c r="D47" s="1">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="E47" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>54.83</v>
+      </c>
+      <c r="G47" s="1">
+        <v>36.99</v>
+      </c>
+      <c r="H47" s="1">
+        <v>51.98</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="L47" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O51" s="9" t="s">
         <v>20</v>
       </c>
@@ -13242,7 +14486,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="15:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O52" s="1">
         <v>0</v>
       </c>
@@ -13277,19 +14521,124 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="F56" s="1">
+        <v>15.32</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1">
+        <v>23.56</v>
+      </c>
+      <c r="F57" s="1">
+        <v>22.55</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1">
+        <v>26.93</v>
+      </c>
+      <c r="F58" s="1">
+        <v>26.44</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
+  <mergeCells count="10">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A54:A58"/>
     <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:M4 K8:M10 K14:M16 K20:M22 K26:M28 K32:M34 K38:M40 K44:M46 O52:S52">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52:T52 K44:M46 K38:M40 K32:M34 K26:M28 K20:M22 K14:M16 K8:M10 K2:M4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13301,7 +14650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O52:T52 K44:M46 K38:M40 K32:M34 K26:M28 K20:M22 K14:M16 K8:M10 K2:M4">
+  <conditionalFormatting sqref="K55:K58 O52:T52">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13322,7 +14671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C73DDE-E5AC-42B2-8459-D7480EF36134}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
